--- a/Book5.xlsx
+++ b/Book5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubayahali/Desktop/python_scripts/GC_RC_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5448A04-68FE-0B43-AEC3-4F6933438C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53877041-6EE7-B641-90BD-095D9B6C53DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14860" xr2:uid="{4AF2B1A6-150F-124C-AE91-6286BAEF32EB}"/>
+    <workbookView xWindow="4660" yWindow="1940" windowWidth="26840" windowHeight="14860" xr2:uid="{4AF2B1A6-150F-124C-AE91-6286BAEF32EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="252">
   <si>
     <t>Rank</t>
   </si>
@@ -908,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -956,6 +956,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1292,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7716C51E-DF94-7F40-A27C-B0E9EF777E5B}">
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4027,7 +4032,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -4044,7 +4049,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -4061,239 +4066,241 @@
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>162</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D163" s="5">
-        <v>710039.05</v>
+      <c r="B163" t="s">
+        <v>37</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="19">
+        <v>716370.78900173388</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D164" s="5">
-        <v>709723.47</v>
+        <v>710039.05</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D165" s="5">
-        <v>700924.46</v>
+        <v>709723.47</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D166" s="5">
-        <v>697125.15</v>
+        <v>700924.46</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D167" s="5">
-        <v>692157.87</v>
+        <v>697125.15</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D168" s="5">
-        <v>679843.73</v>
+        <v>692157.87</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D169" s="5">
-        <v>645444.12</v>
+        <v>679843.73</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D170" s="5">
-        <v>644023.06000000006</v>
+        <v>645444.12</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D171" s="5">
-        <v>604083.52</v>
+        <v>644023.06000000006</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D172" s="5">
-        <v>591670.32999999996</v>
+        <v>604083.52</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D173" s="5">
-        <v>578170.35</v>
+        <v>591670.32999999996</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D174" s="5">
-        <v>565650.31999999995</v>
+        <v>578170.35</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D175" s="5">
-        <v>559989.32999999996</v>
+        <v>565650.31999999995</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D176" s="5">
-        <v>558998.79</v>
+        <v>559989.32999999996</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>156</v>
@@ -4304,13 +4311,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D177" s="5">
-        <v>552232.80000000005</v>
+        <v>558998.79</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>156</v>
@@ -4321,10 +4328,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D178" s="5">
         <v>552232.80000000005</v>
@@ -4338,7 +4345,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>18</v>
@@ -4355,13 +4362,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D180" s="5">
-        <v>552231.71</v>
+        <v>552232.80000000005</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>156</v>
@@ -4372,13 +4379,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D181" s="5">
-        <v>541963.13</v>
+        <v>552231.71</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>156</v>
@@ -4389,13 +4396,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D182" s="5">
-        <v>525503.80000000005</v>
+        <v>541963.13</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>156</v>
@@ -4406,13 +4413,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D183" s="5">
-        <v>520651.41</v>
+        <v>525503.80000000005</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>156</v>
@@ -4423,13 +4430,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D184" s="5">
-        <v>508634.63</v>
+        <v>520651.41</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>156</v>
@@ -4440,13 +4447,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D185" s="5">
-        <v>504506.36</v>
+        <v>508634.63</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>156</v>
@@ -4457,13 +4464,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D186" s="5">
-        <v>489080.39</v>
+        <v>504506.36</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>156</v>
@@ -4474,13 +4481,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D187" s="5">
-        <v>475739.73</v>
+        <v>489080.39</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>156</v>
@@ -4491,13 +4498,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D188" s="5">
-        <v>473345.97</v>
+        <v>475739.73</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>156</v>
@@ -4508,13 +4515,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D189" s="5">
-        <v>466989.89</v>
+        <v>473345.97</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>156</v>
@@ -4525,13 +4532,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D190" s="5">
-        <v>451619.77</v>
+        <v>466989.89</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>156</v>
@@ -4542,13 +4549,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D191" s="5">
-        <v>442701.41</v>
+        <v>451619.77</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>156</v>
@@ -4559,13 +4566,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D192" s="5">
-        <v>423036.23</v>
+        <v>442701.41</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>156</v>
@@ -4576,13 +4583,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D193" s="5">
-        <v>398215.09</v>
+        <v>423036.23</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>156</v>
@@ -4593,13 +4600,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D194" s="5">
-        <v>358479.39</v>
+        <v>398215.09</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>156</v>
@@ -4610,13 +4617,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D195" s="5">
-        <v>327466.82</v>
+        <v>358479.39</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>156</v>
@@ -4627,13 +4634,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D196" s="5">
-        <v>319978.89</v>
+        <v>327466.82</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>156</v>
@@ -4644,13 +4651,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D197" s="5">
-        <v>313890.73</v>
+        <v>319978.89</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>156</v>
@@ -4661,13 +4668,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D198" s="5">
-        <v>311349.48</v>
+        <v>313890.73</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>156</v>
@@ -4678,13 +4685,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D199" s="5">
-        <v>276111.52</v>
+        <v>311349.48</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>156</v>
@@ -4695,13 +4702,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D200" s="5">
-        <v>259352.88</v>
+        <v>276111.52</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>156</v>
@@ -4712,13 +4719,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D201" s="5">
-        <v>238184.36</v>
+        <v>259352.88</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>156</v>
@@ -4729,13 +4736,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D202" s="5">
-        <v>224573.93</v>
+        <v>238184.36</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>156</v>
@@ -4746,13 +4753,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D203" s="5">
-        <v>213653.33</v>
+        <v>224573.93</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>156</v>
@@ -4763,13 +4770,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D204" s="5">
-        <v>210186.4</v>
+        <v>213653.33</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>156</v>
@@ -4780,13 +4787,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D205" s="5">
-        <v>209842.22</v>
+        <v>210186.4</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>156</v>
@@ -4797,13 +4804,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D206" s="5">
-        <v>177803.04</v>
+        <v>209842.22</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>156</v>
@@ -4814,13 +4821,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D207" s="5">
-        <v>176177.77</v>
+        <v>177803.04</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>156</v>
@@ -4831,13 +4838,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D208" s="5">
-        <v>157779.41</v>
+        <v>176177.77</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>156</v>
@@ -4848,13 +4855,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D209" s="5">
-        <v>155194.89000000001</v>
+        <v>157779.41</v>
       </c>
       <c r="E209" s="9" t="s">
         <v>156</v>
@@ -4865,13 +4872,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D210" s="5">
-        <v>153353.89000000001</v>
+        <v>155194.89000000001</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>156</v>
@@ -4882,13 +4889,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D211" s="5">
-        <v>152183.69</v>
+        <v>153353.89000000001</v>
       </c>
       <c r="E211" s="9" t="s">
         <v>156</v>
@@ -4899,13 +4906,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D212" s="5">
-        <v>120294.25</v>
+        <v>152183.69</v>
       </c>
       <c r="E212" s="9" t="s">
         <v>156</v>
@@ -4916,13 +4923,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D213" s="5">
-        <v>113198.22</v>
+        <v>120294.25</v>
       </c>
       <c r="E213" s="9" t="s">
         <v>156</v>
@@ -4933,13 +4940,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D214" s="5">
-        <v>110971.5</v>
+        <v>113198.22</v>
       </c>
       <c r="E214" s="9" t="s">
         <v>156</v>
@@ -4950,13 +4957,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D215" s="5">
-        <v>101854.97</v>
+        <v>110971.5</v>
       </c>
       <c r="E215" s="9" t="s">
         <v>156</v>
@@ -4967,13 +4974,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D216" s="5">
-        <v>85204.98</v>
+        <v>101854.97</v>
       </c>
       <c r="E216" s="9" t="s">
         <v>156</v>
@@ -4984,13 +4991,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D217" s="5">
-        <v>84678.43</v>
+        <v>85204.98</v>
       </c>
       <c r="E217" s="9" t="s">
         <v>156</v>
@@ -5001,13 +5008,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D218" s="5">
-        <v>50154.38</v>
+        <v>84678.43</v>
       </c>
       <c r="E218" s="9" t="s">
         <v>156</v>
@@ -5018,13 +5025,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D219" s="5">
-        <v>49992.27</v>
+        <v>50154.38</v>
       </c>
       <c r="E219" s="9" t="s">
         <v>156</v>
@@ -5035,13 +5042,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D220" s="5">
-        <v>47756.04</v>
+        <v>49992.27</v>
       </c>
       <c r="E220" s="9" t="s">
         <v>156</v>
@@ -5052,13 +5059,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D221" s="5">
-        <v>45871.37</v>
+        <v>47756.04</v>
       </c>
       <c r="E221" s="9" t="s">
         <v>156</v>
@@ -5069,13 +5076,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D222" s="5">
-        <v>26980.22</v>
+        <v>45871.37</v>
       </c>
       <c r="E222" s="9" t="s">
         <v>156</v>
@@ -5086,10 +5093,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D223" s="5">
         <v>26980.22</v>
@@ -5103,7 +5110,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>18</v>
@@ -5120,13 +5127,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D225" s="5">
-        <v>23149.88</v>
+        <v>26980.22</v>
       </c>
       <c r="E225" s="9" t="s">
         <v>156</v>
@@ -5137,13 +5144,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D226" s="5">
-        <v>21493.8</v>
+        <v>23149.88</v>
       </c>
       <c r="E226" s="9" t="s">
         <v>156</v>
@@ -5154,13 +5161,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D227" s="5">
-        <v>20234.89</v>
+        <v>21493.8</v>
       </c>
       <c r="E227" s="9" t="s">
         <v>156</v>
@@ -5171,13 +5178,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D228" s="5">
-        <v>16620.740000000002</v>
+        <v>20234.89</v>
       </c>
       <c r="E228" s="9" t="s">
         <v>156</v>
@@ -5188,13 +5195,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D229" s="5">
-        <v>13454.95</v>
+        <v>16620.740000000002</v>
       </c>
       <c r="E229" s="9" t="s">
         <v>156</v>
@@ -5205,13 +5212,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D230" s="5">
-        <v>7494.44</v>
+        <v>13454.95</v>
       </c>
       <c r="E230" s="9" t="s">
         <v>156</v>
@@ -5222,13 +5229,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D231" s="5">
-        <v>3668.75</v>
+        <v>7494.44</v>
       </c>
       <c r="E231" s="9" t="s">
         <v>156</v>
@@ -5239,135 +5246,152 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D232" s="5">
+        <v>3668.75</v>
+      </c>
+      <c r="E232" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
+        <v>232</v>
+      </c>
+      <c r="B233" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C232" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D232" s="5">
+      <c r="C233" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="5">
         <v>1127.71</v>
       </c>
-      <c r="E232" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="10" t="s">
+      <c r="E233" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="12" t="s">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B236" s="12" t="s">
+      <c r="B237" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C236" s="12" t="s">
+      <c r="C237" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D236" s="13" t="s">
+      <c r="D237" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="E236" s="12" t="s">
+      <c r="E237" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="F236" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G236" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="14" t="s">
+      <c r="F237" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B238" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C237" s="3">
+      <c r="C238" s="3">
         <v>4</v>
       </c>
-      <c r="D237" s="5">
+      <c r="D238" s="5">
         <v>73842913.75</v>
       </c>
-      <c r="E237" s="15">
+      <c r="E238" s="15">
         <v>18460728.440000001</v>
       </c>
-      <c r="F237" s="3">
+      <c r="F238" s="3">
         <v>4</v>
       </c>
-      <c r="G237" s="3">
+      <c r="G238" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="16" t="s">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B239" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C238" s="3">
+      <c r="C239" s="3">
         <v>49</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D239" s="5">
         <v>231754555.75999999</v>
       </c>
-      <c r="E238" s="15">
+      <c r="E239" s="15">
         <v>4729684.8099999996</v>
       </c>
-      <c r="F238" s="3">
+      <c r="F239" s="3">
         <v>30</v>
       </c>
-      <c r="G238" s="3">
+      <c r="G239" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B239" s="3" t="s">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C239" s="3">
+      <c r="C240" s="3">
         <v>92</v>
       </c>
-      <c r="D239" s="5">
+      <c r="D240" s="5">
         <v>153086415.43000001</v>
       </c>
-      <c r="E239" s="15">
+      <c r="E240" s="15">
         <v>1663982.78</v>
       </c>
-      <c r="F239" s="3">
+      <c r="F240" s="3">
         <v>36</v>
       </c>
-      <c r="G239" s="3">
+      <c r="G240" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B240" s="3" t="s">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C240" s="3">
+      <c r="C241" s="3">
         <v>86</v>
       </c>
-      <c r="D240" s="5">
+      <c r="D241" s="5">
         <v>36521826.479999997</v>
       </c>
-      <c r="E240" s="15">
+      <c r="E241" s="15">
         <v>424672.4</v>
       </c>
-      <c r="F240" s="3">
+      <c r="F241" s="3">
         <v>25</v>
       </c>
-      <c r="G240" s="3">
+      <c r="G241" s="3">
         <v>61</v>
       </c>
     </row>
